--- a/Modelos em Python/1 dia a frente(7, 1, 7) (2, 1, 1, 12) 18 a 21h Erros teste.xlsx
+++ b/Modelos em Python/1 dia a frente(7, 1, 7) (2, 1, 1, 12) 18 a 21h Erros teste.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>23.14175728530731</v>
+        <v>23.19177794779173</v>
       </c>
       <c r="C11" t="n">
-        <v>67.20813594803666</v>
+        <v>67.46760643676501</v>
       </c>
       <c r="D11" t="n">
-        <v>74.73123950410185</v>
+        <v>74.93508310356543</v>
       </c>
     </row>
     <row r="12">
@@ -617,13 +617,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>23.06269760081706</v>
+        <v>24.42243777873039</v>
       </c>
       <c r="C12" t="n">
-        <v>67.00766985615094</v>
+        <v>71.69463926644036</v>
       </c>
       <c r="D12" t="n">
-        <v>74.82141117475828</v>
+        <v>78.87391766789221</v>
       </c>
     </row>
     <row r="13">
